--- a/src/main/java/az/et/_syllabus/course_details.xlsx
+++ b/src/main/java/az/et/_syllabus/course_details.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -39,6 +39,12 @@
   <si>
     <t xml:space="preserve">Part #1: https://youtu.be/SKviqOCYBC8
 Part #2: https://youtu.be/6WQnuH0XC6Q </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson #2 – Chapter [6-13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/TOCrMo3FQuU </t>
   </si>
 </sst>
 </file>
@@ -306,10 +312,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ2"/>
+  <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -351,7 +357,21 @@
       <c r="AMI2" s="12"/>
       <c r="AMJ2" s="0"/>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>44660</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://youtu.be/TOCrMo3FQuU"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/main/java/az/et/_syllabus/course_details.xlsx
+++ b/src/main/java/az/et/_syllabus/course_details.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -45,6 +45,33 @@
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/TOCrMo3FQuU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/g6V_BGzceUk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/24q2jYGAzC4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/QPlv4El6yck </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson #6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson #7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson #8</t>
   </si>
 </sst>
 </file>
@@ -312,10 +339,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMJ9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -357,7 +384,10 @@
       <c r="AMI2" s="12"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -368,9 +398,84 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>44662</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>44664</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>44668</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>44672</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://youtu.be/TOCrMo3FQuU"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://youtu.be/TOCrMo3FQuU "/>
+    <hyperlink ref="D4" r:id="rId2" display="https://youtu.be/g6V_BGzceUk"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://youtu.be/24q2jYGAzC4"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://youtu.be/QPlv4El6yck"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
